--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA6041A-63AA-4228-BA9D-A6B716400A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183AD1A8-4F03-4691-989D-D07FE02A76CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58875" yWindow="1155" windowWidth="26970" windowHeight="12975" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="1166" yWindow="2366" windowWidth="29357" windowHeight="14357" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="47">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -128,6 +127,51 @@
   </si>
   <si>
     <t>exp_gtsrb_20200225-185926</t>
+  </si>
+  <si>
+    <t>green_0_5</t>
+  </si>
+  <si>
+    <t>green_1</t>
+  </si>
+  <si>
+    <t>unnötig</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200227-092839</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200226-181550</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200227-145350</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200227-203454</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200228-093808</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200229-071144</t>
+  </si>
+  <si>
+    <t>siehe order of time</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200302-090026</t>
+  </si>
+  <si>
+    <t>nur 70</t>
+  </si>
+  <si>
+    <t>nur 60</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200302-140305</t>
   </si>
 </sst>
 </file>
@@ -565,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -765,33 +809,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
+      <c r="D9" s="1">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J10"/>
@@ -950,6 +998,9 @@
       <c r="H18" t="s">
         <v>13</v>
       </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
     </row>
@@ -1034,6 +1085,9 @@
       <c r="H21" t="s">
         <v>14</v>
       </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1061,6 +1115,9 @@
       <c r="H22" t="s">
         <v>14</v>
       </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1087,6 +1144,9 @@
       </c>
       <c r="H23" t="s">
         <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -1239,6 +1299,9 @@
       <c r="H30" t="s">
         <v>14</v>
       </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
       <c r="K30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1266,6 +1329,9 @@
       <c r="H31" t="s">
         <v>14</v>
       </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
       <c r="K31"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -1293,200 +1359,234 @@
       <c r="H32" t="s">
         <v>14</v>
       </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>64</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
         <v>100</v>
       </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J34"/>
-      <c r="K34"/>
+      <c r="G33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>64</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
       <c r="J35"/>
       <c r="K35"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>64</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J37"/>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="I39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
         <v>100</v>
       </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38"/>
-      <c r="K38"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>64</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>100</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J39"/>
-      <c r="K39"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J40"/>
-      <c r="K40"/>
+      <c r="I40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
       <c r="J41"/>
       <c r="K41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>64</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -1507,17 +1607,17 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1535,14 +1635,14 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -1563,12 +1663,36 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
@@ -1577,36 +1701,12 @@
       <c r="K47"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
       <c r="J48"/>
       <c r="K48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>64</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -1628,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -1656,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -1684,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -1696,42 +1796,42 @@
       <c r="K52"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
       <c r="J53"/>
       <c r="K53"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="4">
-        <v>4</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4">
-        <v>64</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
@@ -1752,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="4">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>24</v>
@@ -1780,7 +1880,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>24</v>
@@ -1791,81 +1891,145 @@
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="4">
-        <v>4</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4">
-        <v>64</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4">
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>64</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>50</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>64</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1">
+        <v>50</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>64</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="4">
         <v>75</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="4">
-        <v>4</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4">
-        <v>64</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="4">
-        <v>100</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J59"/>
       <c r="K59"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4">
+        <v>4</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="4">
+        <v>64</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4">
+        <v>100</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J60"/>
       <c r="K60"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
       <c r="J61"/>
       <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J63"/>
+      <c r="K63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183AD1A8-4F03-4691-989D-D07FE02A76CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C567C6D5-6191-4DB4-BBD8-AD86ABED493C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1166" yWindow="2366" windowWidth="29357" windowHeight="14357" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="49">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -172,13 +172,19 @@
   </si>
   <si>
     <t>exp_gtsrb_20200302-140305</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200303-100605</t>
+  </si>
+  <si>
+    <t>google cloud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +242,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +265,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -279,12 +297,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -293,10 +312,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1863,33 +1884,37 @@
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="4">
-        <v>4</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4">
-        <v>64</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4">
+    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="8">
+        <v>4</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>64</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="8">
         <v>25</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+      <c r="H56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
@@ -1955,33 +1980,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="4">
-        <v>4</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4">
-        <v>64</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="4">
+    <row r="59" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="8">
+        <v>4</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>64</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="8">
         <v>75</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59"/>
-      <c r="K59"/>
+      <c r="H59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
@@ -2024,12 +2053,132 @@
       <c r="K61"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>64</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
       <c r="J62"/>
       <c r="K62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>64</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
       <c r="J63"/>
       <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <v>50</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C567C6D5-6191-4DB4-BBD8-AD86ABED493C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B196EB2-3462-47C4-AC9D-8E8505263A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1166" yWindow="2366" windowWidth="29357" windowHeight="14357" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="60" yWindow="51" windowWidth="27780" windowHeight="15180" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="74">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -178,13 +179,88 @@
   </si>
   <si>
     <t>google cloud</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200303-183227</t>
+  </si>
+  <si>
+    <t>cpu, nur 96 epochs</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200228-152630</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200304-062118</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200304-062110</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200303-145647</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200304-174927</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200304-175046</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200305-055529</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200305-060337</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200305-232824</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200305-234618</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200306-075324</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200307-183021</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200307-183049</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200308-081922</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200308-082156</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200308-160728</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200308-161012</t>
+  </si>
+  <si>
+    <t>already done</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200309-072909</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200309-073105</t>
+  </si>
+  <si>
+    <t>black_1</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>ongoing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +325,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -273,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -296,14 +386,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -313,8 +419,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Ausgabe" xfId="4" builtinId="21"/>
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -630,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1050,6 +1158,9 @@
       <c r="H19" t="s">
         <v>13</v>
       </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
     </row>
@@ -1078,99 +1189,98 @@
       <c r="H20" t="s">
         <v>13</v>
       </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>64</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9">
         <v>100</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="G21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22">
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="9">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>64</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9">
         <v>100</v>
       </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="9">
         <v>19</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23">
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>64</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9">
         <v>100</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="G23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J23"/>
-      <c r="K23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="J24"/>
@@ -1183,207 +1293,220 @@
       <c r="J25"/>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26">
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>64</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8">
         <v>25</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="G26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27">
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>64</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8">
         <v>50</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="G27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
+      <c r="B28" s="8">
+        <v>4</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>64</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8">
         <v>75</v>
       </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="G28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>64</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
         <v>100</v>
       </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30">
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>64</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="9">
         <v>25</v>
       </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="G30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31">
+    </row>
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>64</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="9">
         <v>50</v>
       </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="G31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>64</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32">
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>64</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="9">
         <v>75</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="G32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K32"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
@@ -1524,7 +1647,7 @@
         <v>33</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1594,326 +1717,358 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J41"/>
-      <c r="K41"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>64</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43">
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
         <v>100</v>
       </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J43"/>
-      <c r="K43"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>64</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44">
+      <c r="I42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1">
         <v>100</v>
       </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44"/>
-      <c r="K44"/>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>64</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
       <c r="J45"/>
       <c r="K45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>64</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J47"/>
-      <c r="K47"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="J48"/>
-      <c r="K48"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>64</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
+    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="9">
+        <v>4</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
+        <v>64</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="9">
+        <v>100</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="9">
+        <v>4</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9">
+        <v>64</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="9">
+        <v>100</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="9">
+        <v>9</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9">
+        <v>64</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="9">
+        <v>100</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="9">
+        <v>9</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1</v>
+      </c>
+      <c r="D50" s="9">
+        <v>64</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="9">
+        <v>100</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>64</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
       <c r="J51"/>
       <c r="K51"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>64</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
       <c r="J52"/>
       <c r="K52"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>64</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="J54"/>
-      <c r="K54"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="4">
-        <v>4</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
-        <v>64</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55"/>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="8">
-        <v>4</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1</v>
-      </c>
-      <c r="D56" s="8">
-        <v>64</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="8">
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>64</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
         <v>25</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="8" t="s">
+      <c r="G54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K56" s="8" t="s">
-        <v>48</v>
+      <c r="J54" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>64</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>50</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>64</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>75</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1933,224 +2088,243 @@
         <v>10</v>
       </c>
       <c r="F57" s="1">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>64</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>64</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>64</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1">
+        <v>25</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>64</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1">
+        <v>25</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>64</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1">
         <v>50</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>64</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="1">
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>64</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
         <v>50</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="8">
-        <v>4</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1</v>
-      </c>
-      <c r="D59" s="8">
-        <v>64</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="8">
-        <v>75</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="4">
-        <v>4</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4">
-        <v>64</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="4">
-        <v>100</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="J61"/>
-      <c r="K61"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62">
-        <v>9</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>64</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63">
-        <v>9</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>64</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63"/>
-      <c r="K63"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64">
-        <v>9</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>64</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>50</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64"/>
-      <c r="K64"/>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -2162,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>24</v>
@@ -2171,16 +2345,544 @@
         <v>14</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>64</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1">
+        <v>75</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>64</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1">
+        <v>100</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>64</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1">
+        <v>100</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>64</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>12.5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="8">
+        <v>4</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8">
+        <v>64</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="8">
+        <v>25</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="8">
+        <v>4</v>
+      </c>
+      <c r="C71" s="8">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8">
+        <v>64</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="8">
+        <v>50</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="8">
+        <v>4</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>64</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="8">
+        <v>75</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>64</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>71</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>64</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75"/>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>64</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1">
+        <v>25</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>64</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>64</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="1">
+        <v>50</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>64</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79"/>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>64</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1">
+        <v>75</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>64</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>64</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="1">
+        <v>100</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E69643-E6A6-49B1-89F7-AA480F78C8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6288CA46-3D21-4420-9345-2921C5944A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59610" yWindow="390" windowWidth="27780" windowHeight="15180" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="8349" yWindow="1749" windowWidth="18874" windowHeight="11134" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="78">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -262,6 +263,9 @@
   </si>
   <si>
     <t>exp_gtsrb_20200309-173030</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200303-145824</t>
   </si>
 </sst>
 </file>
@@ -733,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2103,10 +2107,7 @@
         <v>32</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6288CA46-3D21-4420-9345-2921C5944A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D489B6-8A6D-4876-8E16-4910D6DB8FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8349" yWindow="1749" windowWidth="18874" windowHeight="11134" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -100,15 +99,9 @@
     <t>name_of_result</t>
   </si>
   <si>
-    <t>20% classes on 20% data on 20% clients exclusively</t>
-  </si>
-  <si>
     <t>replacement</t>
   </si>
   <si>
-    <t>50% classes on 50% data on 20% clients exclusively</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
@@ -266,13 +259,52 @@
   </si>
   <si>
     <t>exp_gtsrb_20200303-145824</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200312-095036</t>
+  </si>
+  <si>
+    <t>minority first</t>
+  </si>
+  <si>
+    <t>minority last</t>
+  </si>
+  <si>
+    <t>50_50</t>
+  </si>
+  <si>
+    <t>80_20</t>
+  </si>
+  <si>
+    <t>NOT ALL CLASSES</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200312-095114</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200312-162036</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200312-163037</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200311-090537</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200311-090415</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200312-235504</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200312-235421</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,13 +336,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -406,18 +431,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
@@ -735,22 +759,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="15.15234375" customWidth="1"/>
     <col min="3" max="3" width="16.84375" customWidth="1"/>
-    <col min="4" max="4" width="43.3046875" customWidth="1"/>
-    <col min="5" max="5" width="32.69140625" customWidth="1"/>
+    <col min="4" max="4" width="12.23046875" customWidth="1"/>
+    <col min="5" max="5" width="11.921875" customWidth="1"/>
     <col min="6" max="6" width="18.15234375" customWidth="1"/>
     <col min="7" max="7" width="12.69140625" customWidth="1"/>
     <col min="9" max="9" width="30.3046875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.4609375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="22.4609375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -778,8 +802,8 @@
       <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>25</v>
+      <c r="J1" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -810,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -836,7 +860,7 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -862,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -888,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -914,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -940,10 +964,10 @@
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -957,485 +981,414 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
         <v>100</v>
       </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="8">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="8">
-        <v>100</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="8">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="8">
-        <v>100</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="8">
-        <v>19</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="8">
-        <v>100</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="7">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
         <v>25</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1">
-        <v>75</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1">
-        <v>100</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="8">
-        <v>4</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="8">
-        <v>25</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="8">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="8">
-        <v>50</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="8">
-        <v>4</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="8">
-        <v>75</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>33</v>
+      <c r="H32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
         <v>4</v>
@@ -1447,24 +1400,24 @@
         <v>9</v>
       </c>
       <c r="E33" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -1476,96 +1429,131 @@
         <v>9</v>
       </c>
       <c r="E34" s="1">
+        <v>75</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
         <v>100</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1">
-        <v>100</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7">
+        <v>25</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1">
-        <v>100</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="1" t="s">
+    </row>
+    <row r="37" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7">
         <v>50</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="7">
+        <v>75</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -1583,21 +1571,18 @@
         <v>10</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -1615,79 +1600,32 @@
         <v>10</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1">
-        <v>100</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="1">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1">
-        <v>100</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1705,10 +1643,13 @@
         <v>11</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1716,7 +1657,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1731,116 +1672,190 @@
         <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I45"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="H45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1">
+        <v>100</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1">
         <v>19</v>
       </c>
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="8" t="s">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1">
+        <v>100</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="8">
-        <v>4</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="8">
+      <c r="B50" s="1">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1">
         <v>100</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="8">
-        <v>4</v>
-      </c>
-      <c r="C48" s="8">
-        <v>1</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="8">
-        <v>100</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="8">
-        <v>9</v>
-      </c>
-      <c r="C49" s="8">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="8">
-        <v>100</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="8">
-        <v>9</v>
-      </c>
-      <c r="C50" s="8">
-        <v>1</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="8">
-        <v>100</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>13</v>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
@@ -1848,176 +1863,120 @@
       <c r="J51"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="1">
-        <v>25</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="1">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1">
-        <v>50</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="1">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="1">
-        <v>75</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="1">
-        <v>4</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1">
+    <row r="53" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="7">
         <v>100</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="7">
+        <v>100</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="7">
+        <v>9</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="7">
+        <v>100</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="7">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="7">
+        <v>100</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I57"/>
+      <c r="J57"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="1">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -2031,22 +1990,19 @@
         <v>9</v>
       </c>
       <c r="E60" s="1">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2063,22 +2019,19 @@
         <v>9</v>
       </c>
       <c r="E61" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2095,19 +2048,19 @@
         <v>9</v>
       </c>
       <c r="E62" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2124,51 +2077,33 @@
         <v>9</v>
       </c>
       <c r="E63" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="1">
-        <v>4</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1">
-        <v>50</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -2182,22 +2117,25 @@
         <v>9</v>
       </c>
       <c r="E65" s="1">
-        <v>75</v>
+        <v>12.5</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J65" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -2211,22 +2149,22 @@
         <v>9</v>
       </c>
       <c r="E66" s="1">
-        <v>75</v>
+        <v>12.5</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2243,20 +2181,23 @@
         <v>9</v>
       </c>
       <c r="E67" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J67" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
@@ -2272,22 +2213,19 @@
         <v>9</v>
       </c>
       <c r="E68" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2304,19 +2242,19 @@
         <v>9</v>
       </c>
       <c r="E69" s="1">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2333,19 +2271,19 @@
         <v>9</v>
       </c>
       <c r="E70" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2362,19 +2300,19 @@
         <v>9</v>
       </c>
       <c r="E71" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2394,16 +2332,19 @@
         <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2423,63 +2364,85 @@
         <v>100</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="I74"/>
-      <c r="J74"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75">
-        <v>9</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75">
-        <v>25</v>
-      </c>
-      <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75"/>
-      <c r="J75"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1">
+        <v>100</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -2491,55 +2454,53 @@
         <v>25</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1">
         <v>50</v>
       </c>
-      <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" t="s">
-        <v>31</v>
-      </c>
-      <c r="I77"/>
-      <c r="J77"/>
+      <c r="F77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -2548,80 +2509,60 @@
         <v>9</v>
       </c>
       <c r="E78" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79">
-        <v>75</v>
-      </c>
-      <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79"/>
-      <c r="J79"/>
-    </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="1">
-        <v>9</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="1">
-        <v>75</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="1">
+        <v>100</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="I80"/>
+      <c r="J80"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
@@ -2637,16 +2578,16 @@
         <v>9</v>
       </c>
       <c r="E81">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I81"/>
       <c r="J81"/>
@@ -2665,23 +2606,200 @@
         <v>9</v>
       </c>
       <c r="E82" s="1">
+        <v>25</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>50</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1">
+        <v>50</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="1">
+        <v>75</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87">
         <v>100</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>55</v>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>100</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D489B6-8A6D-4876-8E16-4910D6DB8FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048B5FD0-CF59-4B6E-BAD7-2D518A0ACB23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="91">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -298,6 +299,12 @@
   </si>
   <si>
     <t>exp_gtsrb_20200312-235421</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200313-133725</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200313-134738</t>
   </si>
 </sst>
 </file>
@@ -759,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1129,7 +1136,7 @@
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
@@ -1152,7 +1159,7 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1177,383 +1184,322 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
         <v>100</v>
       </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
         <v>12</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H29" t="s">
         <v>38</v>
       </c>
-      <c r="I24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
         <v>100</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
         <v>12</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H30" t="s">
         <v>38</v>
       </c>
-      <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7">
-        <v>100</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="7">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="7">
-        <v>100</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="7">
-        <v>19</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7">
-        <v>100</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="I30"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7">
+        <v>100</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="7">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7">
+        <v>100</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="7">
+        <v>19</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="7">
+        <v>100</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
         <v>25</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
         <v>50</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1">
-        <v>75</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1">
-        <v>100</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="7">
-        <v>4</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="7">
-        <v>25</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="7">
-        <v>4</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="7">
-        <v>50</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="7">
-        <v>4</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="7">
-        <v>75</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -1565,24 +1511,24 @@
         <v>9</v>
       </c>
       <c r="E39" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -1600,61 +1546,96 @@
         <v>10</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I41"/>
-      <c r="J41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42"/>
-      <c r="J42"/>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1">
-        <v>100</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="7">
+        <v>25</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7">
+        <v>50</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="7">
+        <v>75</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -1672,18 +1653,18 @@
         <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
@@ -1701,82 +1682,32 @@
         <v>10</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1">
-        <v>100</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1">
-        <v>100</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1791,13 +1722,16 @@
         <v>10</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1805,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1826,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1834,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1852,258 +1786,279 @@
         <v>12</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>100</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>100</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1">
+        <v>100</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1">
+        <v>100</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1">
+        <v>19</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1">
+        <v>100</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>19</v>
       </c>
-      <c r="I52"/>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="7">
-        <v>4</v>
-      </c>
-      <c r="C53" s="7">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="7">
-        <v>100</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="7">
-        <v>4</v>
-      </c>
-      <c r="C54" s="7">
-        <v>1</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="7">
-        <v>100</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="7">
-        <v>9</v>
-      </c>
-      <c r="C55" s="7">
-        <v>1</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="7">
-        <v>100</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="7">
-        <v>9</v>
-      </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="7">
-        <v>100</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="58" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="7">
+        <v>100</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7">
+        <v>4</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="7">
+        <v>100</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="7">
+        <v>9</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="7">
+        <v>100</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7">
+        <v>9</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="7">
+        <v>100</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>18</v>
       </c>
-      <c r="I59"/>
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="1">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1">
-        <v>25</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="1">
-        <v>4</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1">
-        <v>50</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="1">
-        <v>4</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="1">
-        <v>75</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="1">
-        <v>4</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="1">
-        <v>100</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -2117,25 +2072,22 @@
         <v>9</v>
       </c>
       <c r="E65" s="1">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -2149,10 +2101,10 @@
         <v>9</v>
       </c>
       <c r="E66" s="1">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -2161,10 +2113,7 @@
         <v>30</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2181,22 +2130,19 @@
         <v>9</v>
       </c>
       <c r="E67" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2213,10 +2159,10 @@
         <v>9</v>
       </c>
       <c r="E68" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
@@ -2225,39 +2171,21 @@
         <v>30</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="1">
-        <v>4</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="1">
-        <v>50</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="I69"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="E70" s="1">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>22</v>
@@ -2280,13 +2208,16 @@
         <v>13</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -2300,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="1">
-        <v>75</v>
+        <v>12.5</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>22</v>
@@ -2309,10 +2240,13 @@
         <v>13</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2329,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="E72" s="1">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>22</v>
@@ -2338,10 +2272,10 @@
         <v>13</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>45</v>
@@ -2361,7 +2295,7 @@
         <v>9</v>
       </c>
       <c r="E73" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>22</v>
@@ -2370,10 +2304,10 @@
         <v>13</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2390,7 +2324,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>22</v>
@@ -2399,13 +2333,10 @@
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2422,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="E75" s="1">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>22</v>
@@ -2431,10 +2362,10 @@
         <v>13</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2451,7 +2382,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>22</v>
@@ -2460,10 +2391,10 @@
         <v>13</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2480,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="E77" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>22</v>
@@ -2489,10 +2420,13 @@
         <v>13</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2509,7 +2443,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>22</v>
@@ -2518,10 +2452,10 @@
         <v>13</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2547,57 +2481,79 @@
         <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="I80"/>
-      <c r="J80"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81">
-        <v>9</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81">
+      <c r="I80" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1">
         <v>25</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" t="s">
-        <v>29</v>
-      </c>
-      <c r="I81"/>
-      <c r="J81"/>
+      <c r="G81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -2606,7 +2562,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>22</v>
@@ -2615,49 +2571,47 @@
         <v>13</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83">
-        <v>9</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83">
-        <v>50</v>
-      </c>
-      <c r="F83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1">
+        <v>75</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" t="s">
-        <v>29</v>
-      </c>
-      <c r="I83"/>
-      <c r="J83"/>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -2666,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>22</v>
@@ -2675,126 +2629,254 @@
         <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85">
-        <v>9</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85">
-        <v>75</v>
-      </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>29</v>
-      </c>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="1">
-        <v>9</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="1">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="1">
+        <v>25</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <v>9</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1">
+        <v>50</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90">
         <v>75</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F90" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="1" t="s">
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1">
+        <v>75</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87">
-        <v>9</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92">
         <v>100</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F92" t="s">
         <v>22</v>
       </c>
-      <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
         <v>29</v>
       </c>
-      <c r="I87"/>
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="1">
-        <v>9</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="1">
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1">
         <v>100</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="1" t="s">
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>53</v>
       </c>
     </row>

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048B5FD0-CF59-4B6E-BAD7-2D518A0ACB23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F4DB0E-91CC-4AF0-A9DB-16AD39A5887D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="93">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -305,6 +304,12 @@
   </si>
   <si>
     <t>exp_gtsrb_20200313-134738</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200318-110957</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200318-112229</t>
   </si>
 </sst>
 </file>
@@ -768,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1240,6 +1245,9 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
@@ -1256,6 +1264,9 @@
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F4DB0E-91CC-4AF0-A9DB-16AD39A5887D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E627E8-2A17-4035-8C7D-D01AC679E937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="95">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>exp_gtsrb_20200318-112229</t>
+  </si>
+  <si>
+    <t>sind nur 10% und nicht 20%</t>
+  </si>
+  <si>
+    <t>die da kennen nur die non-iid klassen</t>
   </si>
 </sst>
 </file>
@@ -774,7 +780,7 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1208,6 +1214,9 @@
       <c r="I23" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
@@ -1228,6 +1237,9 @@
       <c r="I24" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
@@ -1247,6 +1259,9 @@
       </c>
       <c r="I25" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E627E8-2A17-4035-8C7D-D01AC679E937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB448FFC-E5DD-429F-98A3-BDDC062C5588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="103">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -129,12 +130,6 @@
     <t>unnötig</t>
   </si>
   <si>
-    <t>exp_gtsrb_20200227-092839</t>
-  </si>
-  <si>
-    <t>exp_gtsrb_20200226-181550</t>
-  </si>
-  <si>
     <t>exp_gtsrb_20200227-145350</t>
   </si>
   <si>
@@ -316,13 +311,43 @@
   </si>
   <si>
     <t>die da kennen nur die non-iid klassen</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200318-203814</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200318-203612</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200319-161053</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200319-173620</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200320-003449</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200320-085236</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200320-090424</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200320-225526</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200321-011532</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,8 +412,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +435,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -445,13 +482,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,11 +498,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -777,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -982,10 +1022,10 @@
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1010,16 +1050,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1033,16 +1073,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1056,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1083,16 +1123,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1106,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1129,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1156,16 +1196,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1179,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -1206,16 +1246,16 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1229,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1252,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1275,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1315,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -1343,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -1371,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1491,7 +1531,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1520,7 +1560,7 @@
         <v>30</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1549,7 +1589,7 @@
         <v>30</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1578,90 +1618,55 @@
         <v>30</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="7">
-        <v>4</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="7">
-        <v>25</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="7">
-        <v>4</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="7">
-        <v>50</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="7">
-        <v>4</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="7">
-        <v>75</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -1679,18 +1684,18 @@
         <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
@@ -1708,32 +1713,82 @@
         <v>10</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47"/>
-      <c r="J47"/>
+        <v>37</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>100</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1748,16 +1803,13 @@
         <v>10</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1765,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1786,7 +1838,7 @@
         <v>30</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1794,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1812,436 +1864,402 @@
         <v>12</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="1">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1">
-        <v>100</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="B53" s="7">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="7">
+        <v>100</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
+    </row>
+    <row r="54" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="7">
+        <v>100</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="1">
-        <v>9</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1">
-        <v>100</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="1">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1">
-        <v>100</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="B55" s="7">
+        <v>9</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="7">
+        <v>100</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1">
-        <v>19</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="1">
-        <v>100</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="1">
-        <v>19</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1">
-        <v>100</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I56"/>
-      <c r="J56"/>
+    </row>
+    <row r="56" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="7">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="7">
+        <v>100</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1">
+        <v>25</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1">
+        <v>50</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1">
+        <v>75</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1">
+        <v>100</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1">
+        <v>100</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="8">
+        <v>8</v>
+      </c>
+      <c r="C65" s="8">
+        <v>2</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="8">
+        <v>100</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="8">
         <v>7</v>
       </c>
-      <c r="B58" s="7">
-        <v>4</v>
-      </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="7">
-        <v>100</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="7">
-        <v>4</v>
-      </c>
-      <c r="C59" s="7">
-        <v>1</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="7">
-        <v>100</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="7">
-        <v>9</v>
-      </c>
-      <c r="C60" s="7">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="7">
-        <v>100</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="7">
-        <v>9</v>
-      </c>
-      <c r="C61" s="7">
-        <v>1</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="7">
-        <v>100</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I62"/>
-      <c r="J62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I63"/>
-      <c r="J63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64"/>
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="1">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="1">
-        <v>25</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="1">
-        <v>4</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1">
-        <v>50</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="1">
-        <v>4</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="1">
-        <v>75</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="1">
-        <v>4</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="1">
-        <v>100</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="I69"/>
-      <c r="J69"/>
-    </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="1">
-        <v>4</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C66" s="8">
+        <v>3</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="8">
+        <v>100</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="8">
+        <v>3</v>
+      </c>
+      <c r="C67" s="8">
+        <v>2</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="8">
+        <v>100</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="8">
+        <v>2</v>
+      </c>
+      <c r="C68" s="8">
+        <v>3</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="8">
+        <v>100</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="I70"/>
+      <c r="J70"/>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
@@ -2266,16 +2284,16 @@
         <v>13</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -2289,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="E72" s="1">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>22</v>
@@ -2298,13 +2316,13 @@
         <v>13</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2330,10 +2348,13 @@
         <v>13</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2350,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="E74" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>22</v>
@@ -2359,10 +2380,10 @@
         <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2388,10 +2409,10 @@
         <v>13</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2408,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="E76" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>22</v>
@@ -2417,10 +2438,10 @@
         <v>13</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2446,13 +2467,10 @@
         <v>13</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2469,7 +2487,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>22</v>
@@ -2478,10 +2496,13 @@
         <v>13</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2507,13 +2528,10 @@
         <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2530,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="E80" s="1">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>22</v>
@@ -2539,10 +2557,13 @@
         <v>13</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2559,7 +2580,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="1">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>22</v>
@@ -2568,10 +2589,10 @@
         <v>13</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2588,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="E82" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>22</v>
@@ -2597,10 +2618,10 @@
         <v>13</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2617,7 +2638,7 @@
         <v>9</v>
       </c>
       <c r="E83" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>22</v>
@@ -2626,10 +2647,10 @@
         <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2646,7 +2667,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>22</v>
@@ -2655,255 +2676,400 @@
         <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="I85"/>
-      <c r="J85"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1">
+        <v>100</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86">
-        <v>9</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>25</v>
-      </c>
-      <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" t="s">
-        <v>29</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="1">
-        <v>9</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="1">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87">
         <v>25</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88">
-        <v>9</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88">
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>25</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89">
         <v>50</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>22</v>
       </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
         <v>29</v>
       </c>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="1">
-        <v>9</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="1">
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1">
         <v>50</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J89" s="1" t="s">
+      <c r="G90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90">
-        <v>9</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90">
+      <c r="J90" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91">
         <v>75</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>22</v>
       </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
         <v>29</v>
       </c>
-      <c r="I90"/>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="1">
-        <v>9</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="1">
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>9</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="1">
         <v>75</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92">
-        <v>9</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92">
-        <v>100</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>100</v>
+      </c>
+      <c r="F93" t="s">
         <v>22</v>
       </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
         <v>29</v>
       </c>
-      <c r="I92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="1">
-        <v>9</v>
-      </c>
-      <c r="C93" s="1">
-        <v>1</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="1">
-        <v>100</v>
-      </c>
-      <c r="F93" s="1" t="s">
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1">
+        <v>100</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>53</v>
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="8">
+        <v>8</v>
+      </c>
+      <c r="C97" s="8">
+        <v>2</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="8">
+        <v>25</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="8">
+        <v>8</v>
+      </c>
+      <c r="C98" s="8">
+        <v>2</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="8">
+        <v>50</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="8">
+        <v>8</v>
+      </c>
+      <c r="C99" s="8">
+        <v>2</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="8">
+        <v>75</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="8">
+        <v>8</v>
+      </c>
+      <c r="C100" s="8">
+        <v>2</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="8">
+        <v>100</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE291832-0969-453A-A166-42A637870314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF9C21A-7E14-4E75-BFA0-C88AE9825847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="104">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -319,15 +318,9 @@
     <t>exp_gtsrb_20200318-203612</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
     <t>exp_gtsrb_20200319-161053</t>
   </si>
   <si>
-    <t>exp_gtsrb_20200319-173620</t>
-  </si>
-  <si>
     <t>exp_gtsrb_20200320-003449</t>
   </si>
   <si>
@@ -341,6 +334,15 @@
   </si>
   <si>
     <t>exp_gtsrb_20200321-011532</t>
+  </si>
+  <si>
+    <t>REDO</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200321-154836</t>
+  </si>
+  <si>
+    <t>exp_gtsrb_20200321-154705</t>
   </si>
 </sst>
 </file>
@@ -819,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2159,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -2188,7 +2190,10 @@
         <v>30</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -2217,7 +2222,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -2246,7 +2251,7 @@
         <v>30</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -2982,7 +2987,7 @@
         <v>30</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -3011,7 +3016,7 @@
         <v>30</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -3040,7 +3045,7 @@
         <v>30</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
@@ -3069,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
+++ b/examples/masterarbeit/gtsrb_notebooks/experiments_gtsrb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\gtsrb_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF9C21A-7E14-4E75-BFA0-C88AE9825847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D46C8B-5A7C-458A-B110-5A1A5E324219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="103">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>exp_gtsrb_20200321-011532</t>
-  </si>
-  <si>
-    <t>REDO</t>
   </si>
   <si>
     <t>exp_gtsrb_20200321-154836</t>
@@ -349,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,15 +411,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,11 +427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -484,14 +469,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,13 +484,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -821,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2135,122 +2117,119 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="8">
-        <v>8</v>
-      </c>
-      <c r="C65" s="8">
+    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="8">
-        <v>100</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="8" t="s">
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1">
+        <v>100</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="8">
+    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
         <v>7</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="1">
         <v>3</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="8">
-        <v>100</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J66" s="8" t="s">
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1">
+        <v>100</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="8">
+    <row r="67" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
         <v>3</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="8">
-        <v>100</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" s="8" t="s">
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>100</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="8">
+    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
         <v>2</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="1">
         <v>3</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="8">
-        <v>100</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="8" t="s">
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1">
+        <v>100</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2961,119 +2940,119 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="8">
-        <v>8</v>
-      </c>
-      <c r="C97" s="8">
+    <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1">
         <v>2</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="8">
+      <c r="D97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="1">
         <v>25</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G97" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="8">
-        <v>8</v>
-      </c>
-      <c r="C98" s="8">
+      <c r="G97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1">
         <v>2</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="8">
+      <c r="D98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1">
         <v>50</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G98" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="8">
-        <v>8</v>
-      </c>
-      <c r="C99" s="8">
+      <c r="G98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
         <v>2</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="8">
+      <c r="D99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1">
         <v>75</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" s="8" t="s">
+      <c r="G99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="8">
-        <v>8</v>
-      </c>
-      <c r="C100" s="8">
+    <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1">
         <v>2</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="8">
-        <v>100</v>
-      </c>
-      <c r="F100" s="8" t="s">
+      <c r="D100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="1">
+        <v>100</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G100" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I100" s="8" t="s">
+      <c r="G100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>98</v>
       </c>
     </row>
